--- a/Excel-XLSX/UN-RSA.xlsx
+++ b/Excel-XLSX/UN-RSA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="2037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="2040">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>R2s9eI</t>
+    <t>923dWB</t>
   </si>
   <si>
     <t>1993</t>
@@ -5940,10 +5940,10 @@
     <t>1284</t>
   </si>
   <si>
-    <t>2477</t>
-  </si>
-  <si>
-    <t>5376</t>
+    <t>2554</t>
+  </si>
+  <si>
+    <t>5621</t>
   </si>
   <si>
     <t>1285</t>
@@ -5952,7 +5952,7 @@
     <t>1286</t>
   </si>
   <si>
-    <t>9609</t>
+    <t>9396</t>
   </si>
   <si>
     <t>1287</t>
@@ -5973,36 +5973,39 @@
     <t>1292</t>
   </si>
   <si>
-    <t>3828</t>
-  </si>
-  <si>
-    <t>3941</t>
-  </si>
-  <si>
     <t>1293</t>
   </si>
   <si>
-    <t>20624</t>
-  </si>
-  <si>
-    <t>24135</t>
+    <t>3887</t>
+  </si>
+  <si>
+    <t>4250</t>
   </si>
   <si>
     <t>1294</t>
   </si>
   <si>
+    <t>21120</t>
+  </si>
+  <si>
+    <t>25258</t>
+  </si>
+  <si>
     <t>1296</t>
   </si>
   <si>
-    <t>13680</t>
-  </si>
-  <si>
-    <t>28871</t>
+    <t>1402</t>
   </si>
   <si>
     <t>1298</t>
   </si>
   <si>
+    <t>14157</t>
+  </si>
+  <si>
+    <t>32716</t>
+  </si>
+  <si>
     <t>1299</t>
   </si>
   <si>
@@ -6021,12 +6024,12 @@
     <t>1304</t>
   </si>
   <si>
-    <t>1884</t>
-  </si>
-  <si>
     <t>1305</t>
   </si>
   <si>
+    <t>1795</t>
+  </si>
+  <si>
     <t>1306</t>
   </si>
   <si>
@@ -6057,18 +6060,18 @@
     <t>1316</t>
   </si>
   <si>
-    <t>1484</t>
-  </si>
-  <si>
-    <t>3322</t>
-  </si>
-  <si>
     <t>1318</t>
   </si>
   <si>
+    <t>1599</t>
+  </si>
+  <si>
     <t>1319</t>
   </si>
   <si>
+    <t>3112</t>
+  </si>
+  <si>
     <t>1320</t>
   </si>
   <si>
@@ -6081,18 +6084,18 @@
     <t>1323</t>
   </si>
   <si>
-    <t>21202</t>
-  </si>
-  <si>
-    <t>4869</t>
-  </si>
-  <si>
     <t>1324</t>
   </si>
   <si>
     <t>1325</t>
   </si>
   <si>
+    <t>22141</t>
+  </si>
+  <si>
+    <t>5153</t>
+  </si>
+  <si>
     <t>1326</t>
   </si>
   <si>
@@ -6117,16 +6120,22 @@
     <t>1333</t>
   </si>
   <si>
+    <t>2097</t>
+  </si>
+  <si>
     <t>1334</t>
   </si>
   <si>
     <t>1336</t>
   </si>
   <si>
-    <t>3408</t>
-  </si>
-  <si>
-    <t>3502</t>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3642</t>
   </si>
 </sst>
 </file>
@@ -6511,7 +6520,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1337"/>
+  <dimension ref="A1:V1338"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -93603,7 +93612,7 @@
         <v>52</v>
       </c>
       <c r="O1281" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P1281" s="2" t="s">
         <v>33</v>
@@ -93671,7 +93680,7 @@
         <v>52</v>
       </c>
       <c r="O1282" s="2" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="P1282" s="2" t="s">
         <v>33</v>
@@ -93736,7 +93745,7 @@
         <v>31</v>
       </c>
       <c r="N1283" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O1283" s="2" t="s">
         <v>52</v>
@@ -93807,7 +93816,7 @@
         <v>52</v>
       </c>
       <c r="O1284" s="2" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="P1284" s="2" t="s">
         <v>33</v>
@@ -93878,7 +93887,7 @@
         <v>1975</v>
       </c>
       <c r="P1285" s="2" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="Q1285" s="2" t="s">
         <v>33</v>
@@ -93943,7 +93952,7 @@
         <v>52</v>
       </c>
       <c r="O1286" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P1286" s="2" t="s">
         <v>33</v>
@@ -94008,7 +94017,7 @@
         <v>31</v>
       </c>
       <c r="N1287" s="2" t="s">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="O1287" s="2" t="s">
         <v>1978</v>
@@ -94188,16 +94197,16 @@
         <v>1970</v>
       </c>
       <c r="F1290" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G1290" s="1" t="s">
-        <v>997</v>
+        <v>217</v>
       </c>
       <c r="H1290" s="1" t="s">
-        <v>998</v>
+        <v>218</v>
       </c>
       <c r="I1290" s="1" t="s">
-        <v>999</v>
+        <v>219</v>
       </c>
       <c r="J1290" s="2" t="s">
         <v>28</v>
@@ -94212,10 +94221,10 @@
         <v>31</v>
       </c>
       <c r="N1290" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O1290" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P1290" s="2" t="s">
         <v>33</v>
@@ -94256,16 +94265,16 @@
         <v>1970</v>
       </c>
       <c r="F1291" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="G1291" s="1" t="s">
-        <v>90</v>
+        <v>997</v>
       </c>
       <c r="H1291" s="1" t="s">
-        <v>91</v>
+        <v>998</v>
       </c>
       <c r="I1291" s="1" t="s">
-        <v>92</v>
+        <v>999</v>
       </c>
       <c r="J1291" s="2" t="s">
         <v>28</v>
@@ -94280,10 +94289,10 @@
         <v>31</v>
       </c>
       <c r="N1291" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O1291" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="P1291" s="2" t="s">
         <v>33</v>
@@ -94324,16 +94333,16 @@
         <v>1970</v>
       </c>
       <c r="F1292" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="G1292" s="1" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="H1292" s="1" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="I1292" s="1" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="J1292" s="2" t="s">
         <v>28</v>
@@ -94348,10 +94357,10 @@
         <v>31</v>
       </c>
       <c r="N1292" s="2" t="s">
-        <v>652</v>
+        <v>33</v>
       </c>
       <c r="O1292" s="2" t="s">
-        <v>1274</v>
+        <v>59</v>
       </c>
       <c r="P1292" s="2" t="s">
         <v>33</v>
@@ -94392,16 +94401,16 @@
         <v>1970</v>
       </c>
       <c r="F1293" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1293" s="1" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="H1293" s="1" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="I1293" s="1" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="J1293" s="2" t="s">
         <v>28</v>
@@ -94416,10 +94425,10 @@
         <v>31</v>
       </c>
       <c r="N1293" s="2" t="s">
-        <v>1985</v>
+        <v>663</v>
       </c>
       <c r="O1293" s="2" t="s">
-        <v>1986</v>
+        <v>1326</v>
       </c>
       <c r="P1293" s="2" t="s">
         <v>33</v>
@@ -94454,22 +94463,22 @@
         <v>22</v>
       </c>
       <c r="D1294" s="2" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E1294" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1294" s="2" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="G1294" s="1" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="H1294" s="1" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I1294" s="1" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="J1294" s="2" t="s">
         <v>28</v>
@@ -94484,13 +94493,13 @@
         <v>31</v>
       </c>
       <c r="N1294" s="2" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="O1294" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="P1294" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="Q1294" s="2" t="s">
         <v>33</v>
@@ -94522,22 +94531,22 @@
         <v>22</v>
       </c>
       <c r="D1295" s="2" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E1295" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1295" s="2" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="G1295" s="1" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="H1295" s="1" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="I1295" s="1" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="J1295" s="2" t="s">
         <v>28</v>
@@ -94552,13 +94561,13 @@
         <v>31</v>
       </c>
       <c r="N1295" s="2" t="s">
-        <v>33</v>
+        <v>1989</v>
       </c>
       <c r="O1295" s="2" t="s">
-        <v>69</v>
+        <v>1990</v>
       </c>
       <c r="P1295" s="2" t="s">
-        <v>33</v>
+        <v>570</v>
       </c>
       <c r="Q1295" s="2" t="s">
         <v>33</v>
@@ -94596,16 +94605,16 @@
         <v>1970</v>
       </c>
       <c r="F1296" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G1296" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H1296" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I1296" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J1296" s="2" t="s">
         <v>28</v>
@@ -94620,10 +94629,10 @@
         <v>31</v>
       </c>
       <c r="N1296" s="2" t="s">
-        <v>1174</v>
+        <v>33</v>
       </c>
       <c r="O1296" s="2" t="s">
-        <v>1467</v>
+        <v>64</v>
       </c>
       <c r="P1296" s="2" t="s">
         <v>33</v>
@@ -94664,16 +94673,16 @@
         <v>1970</v>
       </c>
       <c r="F1297" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G1297" s="1" t="s">
-        <v>1013</v>
+        <v>238</v>
       </c>
       <c r="H1297" s="1" t="s">
-        <v>1014</v>
+        <v>239</v>
       </c>
       <c r="I1297" s="1" t="s">
-        <v>1014</v>
+        <v>240</v>
       </c>
       <c r="J1297" s="2" t="s">
         <v>28</v>
@@ -94688,10 +94697,10 @@
         <v>31</v>
       </c>
       <c r="N1297" s="2" t="s">
-        <v>52</v>
+        <v>1992</v>
       </c>
       <c r="O1297" s="2" t="s">
-        <v>52</v>
+        <v>1473</v>
       </c>
       <c r="P1297" s="2" t="s">
         <v>33</v>
@@ -94732,16 +94741,16 @@
         <v>1970</v>
       </c>
       <c r="F1298" s="2" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="G1298" s="1" t="s">
-        <v>49</v>
+        <v>1013</v>
       </c>
       <c r="H1298" s="1" t="s">
-        <v>50</v>
+        <v>1014</v>
       </c>
       <c r="I1298" s="1" t="s">
-        <v>50</v>
+        <v>1014</v>
       </c>
       <c r="J1298" s="2" t="s">
         <v>28</v>
@@ -94756,10 +94765,10 @@
         <v>31</v>
       </c>
       <c r="N1298" s="2" t="s">
-        <v>1992</v>
+        <v>52</v>
       </c>
       <c r="O1298" s="2" t="s">
-        <v>1993</v>
+        <v>52</v>
       </c>
       <c r="P1298" s="2" t="s">
         <v>33</v>
@@ -94794,22 +94803,22 @@
         <v>22</v>
       </c>
       <c r="D1299" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E1299" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1299" s="2" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="G1299" s="1" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="H1299" s="1" t="s">
-        <v>349</v>
+        <v>50</v>
       </c>
       <c r="I1299" s="1" t="s">
-        <v>349</v>
+        <v>50</v>
       </c>
       <c r="J1299" s="2" t="s">
         <v>28</v>
@@ -94824,10 +94833,10 @@
         <v>31</v>
       </c>
       <c r="N1299" s="2" t="s">
-        <v>33</v>
+        <v>1994</v>
       </c>
       <c r="O1299" s="2" t="s">
-        <v>52</v>
+        <v>1995</v>
       </c>
       <c r="P1299" s="2" t="s">
         <v>33</v>
@@ -94862,7 +94871,7 @@
         <v>22</v>
       </c>
       <c r="D1300" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E1300" s="2" t="s">
         <v>1970</v>
@@ -94930,7 +94939,7 @@
         <v>22</v>
       </c>
       <c r="D1301" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="E1301" s="2" t="s">
         <v>1970</v>
@@ -94960,10 +94969,10 @@
         <v>31</v>
       </c>
       <c r="N1301" s="2" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="O1301" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P1301" s="2" t="s">
         <v>33</v>
@@ -94998,7 +95007,7 @@
         <v>22</v>
       </c>
       <c r="D1302" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E1302" s="2" t="s">
         <v>1970</v>
@@ -95031,7 +95040,7 @@
         <v>52</v>
       </c>
       <c r="O1302" s="2" t="s">
-        <v>893</v>
+        <v>984</v>
       </c>
       <c r="P1302" s="2" t="s">
         <v>33</v>
@@ -95066,7 +95075,7 @@
         <v>22</v>
       </c>
       <c r="D1303" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E1303" s="2" t="s">
         <v>1970</v>
@@ -95099,7 +95108,7 @@
         <v>33</v>
       </c>
       <c r="O1303" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="P1303" s="2" t="s">
         <v>33</v>
@@ -95134,22 +95143,22 @@
         <v>22</v>
       </c>
       <c r="D1304" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E1304" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1304" s="2" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G1304" s="1" t="s">
-        <v>253</v>
+        <v>1330</v>
       </c>
       <c r="H1304" s="1" t="s">
-        <v>254</v>
+        <v>1331</v>
       </c>
       <c r="I1304" s="1" t="s">
-        <v>255</v>
+        <v>1331</v>
       </c>
       <c r="J1304" s="2" t="s">
         <v>28</v>
@@ -95164,10 +95173,10 @@
         <v>31</v>
       </c>
       <c r="N1304" s="2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="O1304" s="2" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="P1304" s="2" t="s">
         <v>33</v>
@@ -95202,22 +95211,22 @@
         <v>22</v>
       </c>
       <c r="D1305" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E1305" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1305" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G1305" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H1305" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I1305" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J1305" s="2" t="s">
         <v>28</v>
@@ -95232,10 +95241,10 @@
         <v>31</v>
       </c>
       <c r="N1305" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="O1305" s="2" t="s">
-        <v>2001</v>
+        <v>168</v>
       </c>
       <c r="P1305" s="2" t="s">
         <v>33</v>
@@ -95276,16 +95285,16 @@
         <v>1970</v>
       </c>
       <c r="F1306" s="2" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="G1306" s="1" t="s">
-        <v>361</v>
+        <v>258</v>
       </c>
       <c r="H1306" s="1" t="s">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I1306" s="1" t="s">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="J1306" s="2" t="s">
         <v>28</v>
@@ -95300,10 +95309,10 @@
         <v>31</v>
       </c>
       <c r="N1306" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O1306" s="2" t="s">
-        <v>52</v>
+        <v>2003</v>
       </c>
       <c r="P1306" s="2" t="s">
         <v>33</v>
@@ -95338,22 +95347,22 @@
         <v>22</v>
       </c>
       <c r="D1307" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E1307" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1307" s="2" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="G1307" s="1" t="s">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="H1307" s="1" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="I1307" s="1" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="J1307" s="2" t="s">
         <v>28</v>
@@ -95368,7 +95377,7 @@
         <v>31</v>
       </c>
       <c r="N1307" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O1307" s="2" t="s">
         <v>52</v>
@@ -95406,22 +95415,22 @@
         <v>22</v>
       </c>
       <c r="D1308" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E1308" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1308" s="2" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G1308" s="1" t="s">
-        <v>942</v>
+        <v>263</v>
       </c>
       <c r="H1308" s="1" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="I1308" s="1" t="s">
-        <v>943</v>
+        <v>264</v>
       </c>
       <c r="J1308" s="2" t="s">
         <v>28</v>
@@ -95436,10 +95445,10 @@
         <v>31</v>
       </c>
       <c r="N1308" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1308" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O1308" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="P1308" s="2" t="s">
         <v>33</v>
@@ -95474,22 +95483,22 @@
         <v>22</v>
       </c>
       <c r="D1309" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E1309" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1309" s="2" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="G1309" s="1" t="s">
-        <v>267</v>
+        <v>942</v>
       </c>
       <c r="H1309" s="1" t="s">
-        <v>268</v>
+        <v>943</v>
       </c>
       <c r="I1309" s="1" t="s">
-        <v>268</v>
+        <v>943</v>
       </c>
       <c r="J1309" s="2" t="s">
         <v>28</v>
@@ -95504,10 +95513,10 @@
         <v>31</v>
       </c>
       <c r="N1309" s="2" t="s">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="O1309" s="2" t="s">
-        <v>843</v>
+        <v>52</v>
       </c>
       <c r="P1309" s="2" t="s">
         <v>33</v>
@@ -95542,22 +95551,22 @@
         <v>22</v>
       </c>
       <c r="D1310" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E1310" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1310" s="2" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="G1310" s="1" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="H1310" s="1" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="I1310" s="1" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="J1310" s="2" t="s">
         <v>28</v>
@@ -95572,10 +95581,10 @@
         <v>31</v>
       </c>
       <c r="N1310" s="2" t="s">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="O1310" s="2" t="s">
-        <v>107</v>
+        <v>701</v>
       </c>
       <c r="P1310" s="2" t="s">
         <v>33</v>
@@ -95610,22 +95619,22 @@
         <v>22</v>
       </c>
       <c r="D1311" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E1311" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1311" s="2" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="G1311" s="1" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="H1311" s="1" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="I1311" s="1" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="J1311" s="2" t="s">
         <v>28</v>
@@ -95640,10 +95649,10 @@
         <v>31</v>
       </c>
       <c r="N1311" s="2" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="O1311" s="2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="P1311" s="2" t="s">
         <v>33</v>
@@ -95678,22 +95687,22 @@
         <v>22</v>
       </c>
       <c r="D1312" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E1312" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1312" s="2" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="G1312" s="1" t="s">
-        <v>278</v>
+        <v>733</v>
       </c>
       <c r="H1312" s="1" t="s">
-        <v>279</v>
+        <v>734</v>
       </c>
       <c r="I1312" s="1" t="s">
-        <v>279</v>
+        <v>735</v>
       </c>
       <c r="J1312" s="2" t="s">
         <v>28</v>
@@ -95708,10 +95717,10 @@
         <v>31</v>
       </c>
       <c r="N1312" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O1312" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="P1312" s="2" t="s">
         <v>33</v>
@@ -95746,22 +95755,22 @@
         <v>22</v>
       </c>
       <c r="D1313" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E1313" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1313" s="2" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="G1313" s="1" t="s">
-        <v>440</v>
+        <v>274</v>
       </c>
       <c r="H1313" s="1" t="s">
-        <v>441</v>
+        <v>275</v>
       </c>
       <c r="I1313" s="1" t="s">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="J1313" s="2" t="s">
         <v>28</v>
@@ -95776,10 +95785,10 @@
         <v>31</v>
       </c>
       <c r="N1313" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O1313" s="2" t="s">
-        <v>1097</v>
+        <v>52</v>
       </c>
       <c r="P1313" s="2" t="s">
         <v>33</v>
@@ -95814,22 +95823,22 @@
         <v>22</v>
       </c>
       <c r="D1314" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E1314" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1314" s="2" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="G1314" s="1" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="H1314" s="1" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="I1314" s="1" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="J1314" s="2" t="s">
         <v>28</v>
@@ -95844,10 +95853,10 @@
         <v>31</v>
       </c>
       <c r="N1314" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O1314" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="P1314" s="2" t="s">
         <v>33</v>
@@ -95888,16 +95897,16 @@
         <v>1970</v>
       </c>
       <c r="F1315" s="2" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="G1315" s="1" t="s">
-        <v>1043</v>
+        <v>440</v>
       </c>
       <c r="H1315" s="1" t="s">
-        <v>1044</v>
+        <v>441</v>
       </c>
       <c r="I1315" s="1" t="s">
-        <v>1045</v>
+        <v>442</v>
       </c>
       <c r="J1315" s="2" t="s">
         <v>28</v>
@@ -95912,10 +95921,10 @@
         <v>31</v>
       </c>
       <c r="N1315" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O1315" s="2" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="P1315" s="2" t="s">
         <v>33</v>
@@ -95950,22 +95959,22 @@
         <v>22</v>
       </c>
       <c r="D1316" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E1316" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1316" s="2" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="G1316" s="1" t="s">
-        <v>747</v>
+        <v>26</v>
       </c>
       <c r="H1316" s="1" t="s">
-        <v>748</v>
+        <v>27</v>
       </c>
       <c r="I1316" s="1" t="s">
-        <v>749</v>
+        <v>27</v>
       </c>
       <c r="J1316" s="2" t="s">
         <v>28</v>
@@ -95980,10 +95989,10 @@
         <v>31</v>
       </c>
       <c r="N1316" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O1316" s="2" t="s">
-        <v>470</v>
+        <v>43</v>
       </c>
       <c r="P1316" s="2" t="s">
         <v>33</v>
@@ -96018,22 +96027,22 @@
         <v>22</v>
       </c>
       <c r="D1317" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E1317" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1317" s="2" t="s">
-        <v>102</v>
+        <v>390</v>
       </c>
       <c r="G1317" s="1" t="s">
-        <v>103</v>
+        <v>1043</v>
       </c>
       <c r="H1317" s="1" t="s">
-        <v>104</v>
+        <v>1044</v>
       </c>
       <c r="I1317" s="1" t="s">
-        <v>105</v>
+        <v>1045</v>
       </c>
       <c r="J1317" s="2" t="s">
         <v>28</v>
@@ -96048,10 +96057,10 @@
         <v>31</v>
       </c>
       <c r="N1317" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O1317" s="2" t="s">
-        <v>2013</v>
+        <v>179</v>
       </c>
       <c r="P1317" s="2" t="s">
         <v>33</v>
@@ -96092,16 +96101,16 @@
         <v>1970</v>
       </c>
       <c r="F1318" s="2" t="s">
-        <v>108</v>
+        <v>397</v>
       </c>
       <c r="G1318" s="1" t="s">
-        <v>109</v>
+        <v>747</v>
       </c>
       <c r="H1318" s="1" t="s">
-        <v>110</v>
+        <v>748</v>
       </c>
       <c r="I1318" s="1" t="s">
-        <v>110</v>
+        <v>749</v>
       </c>
       <c r="J1318" s="2" t="s">
         <v>28</v>
@@ -96116,10 +96125,10 @@
         <v>31</v>
       </c>
       <c r="N1318" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O1318" s="2" t="s">
-        <v>2014</v>
+        <v>113</v>
       </c>
       <c r="P1318" s="2" t="s">
         <v>33</v>
@@ -96154,22 +96163,22 @@
         <v>22</v>
       </c>
       <c r="D1319" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E1319" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1319" s="2" t="s">
-        <v>433</v>
+        <v>102</v>
       </c>
       <c r="G1319" s="1" t="s">
-        <v>1252</v>
+        <v>103</v>
       </c>
       <c r="H1319" s="1" t="s">
-        <v>1253</v>
+        <v>104</v>
       </c>
       <c r="I1319" s="1" t="s">
-        <v>1253</v>
+        <v>105</v>
       </c>
       <c r="J1319" s="2" t="s">
         <v>28</v>
@@ -96184,10 +96193,10 @@
         <v>31</v>
       </c>
       <c r="N1319" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O1319" s="2" t="s">
-        <v>33</v>
+        <v>2015</v>
       </c>
       <c r="P1319" s="2" t="s">
         <v>33</v>
@@ -96228,16 +96237,16 @@
         <v>1970</v>
       </c>
       <c r="F1320" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G1320" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="H1320" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I1320" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="J1320" s="2" t="s">
         <v>28</v>
@@ -96252,10 +96261,10 @@
         <v>31</v>
       </c>
       <c r="N1320" s="2" t="s">
-        <v>1515</v>
+        <v>59</v>
       </c>
       <c r="O1320" s="2" t="s">
-        <v>1421</v>
+        <v>2017</v>
       </c>
       <c r="P1320" s="2" t="s">
         <v>33</v>
@@ -96290,22 +96299,22 @@
         <v>22</v>
       </c>
       <c r="D1321" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1321" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1321" s="2" t="s">
-        <v>286</v>
+        <v>433</v>
       </c>
       <c r="G1321" s="1" t="s">
-        <v>287</v>
+        <v>1252</v>
       </c>
       <c r="H1321" s="1" t="s">
-        <v>288</v>
+        <v>1253</v>
       </c>
       <c r="I1321" s="1" t="s">
-        <v>288</v>
+        <v>1253</v>
       </c>
       <c r="J1321" s="2" t="s">
         <v>28</v>
@@ -96320,10 +96329,10 @@
         <v>31</v>
       </c>
       <c r="N1321" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O1321" s="2" t="s">
-        <v>570</v>
+        <v>33</v>
       </c>
       <c r="P1321" s="2" t="s">
         <v>33</v>
@@ -96358,22 +96367,22 @@
         <v>22</v>
       </c>
       <c r="D1322" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E1322" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1322" s="2" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="G1322" s="1" t="s">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c r="H1322" s="1" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="I1322" s="1" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="J1322" s="2" t="s">
         <v>28</v>
@@ -96388,10 +96397,10 @@
         <v>31</v>
       </c>
       <c r="N1322" s="2" t="s">
-        <v>88</v>
+        <v>1530</v>
       </c>
       <c r="O1322" s="2" t="s">
-        <v>59</v>
+        <v>1397</v>
       </c>
       <c r="P1322" s="2" t="s">
         <v>33</v>
@@ -96426,22 +96435,22 @@
         <v>22</v>
       </c>
       <c r="D1323" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E1323" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1323" s="2" t="s">
-        <v>450</v>
+        <v>286</v>
       </c>
       <c r="G1323" s="1" t="s">
-        <v>897</v>
+        <v>287</v>
       </c>
       <c r="H1323" s="1" t="s">
-        <v>898</v>
+        <v>288</v>
       </c>
       <c r="I1323" s="1" t="s">
-        <v>899</v>
+        <v>288</v>
       </c>
       <c r="J1323" s="2" t="s">
         <v>28</v>
@@ -96456,10 +96465,10 @@
         <v>31</v>
       </c>
       <c r="N1323" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O1323" s="2" t="s">
-        <v>33</v>
+        <v>557</v>
       </c>
       <c r="P1323" s="2" t="s">
         <v>33</v>
@@ -96494,22 +96503,22 @@
         <v>22</v>
       </c>
       <c r="D1324" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E1324" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1324" s="2" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="G1324" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="H1324" s="1" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="I1324" s="1" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="J1324" s="2" t="s">
         <v>28</v>
@@ -96524,10 +96533,10 @@
         <v>31</v>
       </c>
       <c r="N1324" s="2" t="s">
-        <v>2021</v>
+        <v>88</v>
       </c>
       <c r="O1324" s="2" t="s">
-        <v>2022</v>
+        <v>37</v>
       </c>
       <c r="P1324" s="2" t="s">
         <v>33</v>
@@ -96562,22 +96571,22 @@
         <v>22</v>
       </c>
       <c r="D1325" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E1325" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1325" s="2" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="G1325" s="1" t="s">
-        <v>299</v>
+        <v>897</v>
       </c>
       <c r="H1325" s="1" t="s">
-        <v>300</v>
+        <v>898</v>
       </c>
       <c r="I1325" s="1" t="s">
-        <v>301</v>
+        <v>899</v>
       </c>
       <c r="J1325" s="2" t="s">
         <v>28</v>
@@ -96592,10 +96601,10 @@
         <v>31</v>
       </c>
       <c r="N1325" s="2" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="O1325" s="2" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="P1325" s="2" t="s">
         <v>33</v>
@@ -96630,22 +96639,22 @@
         <v>22</v>
       </c>
       <c r="D1326" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E1326" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1326" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G1326" s="1" t="s">
-        <v>767</v>
+        <v>66</v>
       </c>
       <c r="H1326" s="1" t="s">
-        <v>768</v>
+        <v>67</v>
       </c>
       <c r="I1326" s="1" t="s">
-        <v>769</v>
+        <v>67</v>
       </c>
       <c r="J1326" s="2" t="s">
         <v>28</v>
@@ -96660,10 +96669,10 @@
         <v>31</v>
       </c>
       <c r="N1326" s="2" t="s">
-        <v>69</v>
+        <v>2024</v>
       </c>
       <c r="O1326" s="2" t="s">
-        <v>52</v>
+        <v>2025</v>
       </c>
       <c r="P1326" s="2" t="s">
         <v>33</v>
@@ -96698,22 +96707,22 @@
         <v>22</v>
       </c>
       <c r="D1327" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E1327" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1327" s="2" t="s">
-        <v>470</v>
+        <v>298</v>
       </c>
       <c r="G1327" s="1" t="s">
-        <v>1066</v>
+        <v>299</v>
       </c>
       <c r="H1327" s="1" t="s">
-        <v>1067</v>
+        <v>300</v>
       </c>
       <c r="I1327" s="1" t="s">
-        <v>1067</v>
+        <v>301</v>
       </c>
       <c r="J1327" s="2" t="s">
         <v>28</v>
@@ -96728,10 +96737,10 @@
         <v>31</v>
       </c>
       <c r="N1327" s="2" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="O1327" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="P1327" s="2" t="s">
         <v>33</v>
@@ -96766,22 +96775,22 @@
         <v>22</v>
       </c>
       <c r="D1328" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E1328" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1328" s="2" t="s">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="G1328" s="1" t="s">
-        <v>305</v>
+        <v>767</v>
       </c>
       <c r="H1328" s="1" t="s">
-        <v>306</v>
+        <v>768</v>
       </c>
       <c r="I1328" s="1" t="s">
-        <v>307</v>
+        <v>769</v>
       </c>
       <c r="J1328" s="2" t="s">
         <v>28</v>
@@ -96796,10 +96805,10 @@
         <v>31</v>
       </c>
       <c r="N1328" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="O1328" s="2" t="s">
-        <v>554</v>
+        <v>52</v>
       </c>
       <c r="P1328" s="2" t="s">
         <v>33</v>
@@ -96834,22 +96843,22 @@
         <v>22</v>
       </c>
       <c r="D1329" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E1329" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1329" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G1329" s="1" t="s">
-        <v>773</v>
+        <v>1066</v>
       </c>
       <c r="H1329" s="1" t="s">
-        <v>774</v>
+        <v>1067</v>
       </c>
       <c r="I1329" s="1" t="s">
-        <v>774</v>
+        <v>1067</v>
       </c>
       <c r="J1329" s="2" t="s">
         <v>28</v>
@@ -96864,10 +96873,10 @@
         <v>31</v>
       </c>
       <c r="N1329" s="2" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="O1329" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="P1329" s="2" t="s">
         <v>33</v>
@@ -96902,22 +96911,22 @@
         <v>22</v>
       </c>
       <c r="D1330" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E1330" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1330" s="2" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="G1330" s="1" t="s">
-        <v>776</v>
+        <v>305</v>
       </c>
       <c r="H1330" s="1" t="s">
-        <v>777</v>
+        <v>306</v>
       </c>
       <c r="I1330" s="1" t="s">
-        <v>778</v>
+        <v>307</v>
       </c>
       <c r="J1330" s="2" t="s">
         <v>28</v>
@@ -96932,10 +96941,10 @@
         <v>31</v>
       </c>
       <c r="N1330" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="O1330" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P1330" s="2" t="s">
         <v>33</v>
@@ -96970,22 +96979,22 @@
         <v>22</v>
       </c>
       <c r="D1331" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E1331" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1331" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G1331" s="1" t="s">
-        <v>1072</v>
+        <v>773</v>
       </c>
       <c r="H1331" s="1" t="s">
-        <v>1073</v>
+        <v>774</v>
       </c>
       <c r="I1331" s="1" t="s">
-        <v>1073</v>
+        <v>774</v>
       </c>
       <c r="J1331" s="2" t="s">
         <v>28</v>
@@ -97000,10 +97009,10 @@
         <v>31</v>
       </c>
       <c r="N1331" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1331" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O1331" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="P1331" s="2" t="s">
         <v>33</v>
@@ -97038,22 +97047,22 @@
         <v>22</v>
       </c>
       <c r="D1332" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="E1332" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1332" s="2" t="s">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="G1332" s="1" t="s">
-        <v>311</v>
+        <v>776</v>
       </c>
       <c r="H1332" s="1" t="s">
-        <v>312</v>
+        <v>777</v>
       </c>
       <c r="I1332" s="1" t="s">
-        <v>312</v>
+        <v>778</v>
       </c>
       <c r="J1332" s="2" t="s">
         <v>28</v>
@@ -97068,10 +97077,10 @@
         <v>31</v>
       </c>
       <c r="N1332" s="2" t="s">
-        <v>811</v>
+        <v>83</v>
       </c>
       <c r="O1332" s="2" t="s">
-        <v>1611</v>
+        <v>52</v>
       </c>
       <c r="P1332" s="2" t="s">
         <v>33</v>
@@ -97106,22 +97115,22 @@
         <v>22</v>
       </c>
       <c r="D1333" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E1333" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1333" s="2" t="s">
-        <v>75</v>
+        <v>488</v>
       </c>
       <c r="G1333" s="1" t="s">
-        <v>76</v>
+        <v>1072</v>
       </c>
       <c r="H1333" s="1" t="s">
-        <v>77</v>
+        <v>1073</v>
       </c>
       <c r="I1333" s="1" t="s">
-        <v>78</v>
+        <v>1073</v>
       </c>
       <c r="J1333" s="2" t="s">
         <v>28</v>
@@ -97139,7 +97148,7 @@
         <v>52</v>
       </c>
       <c r="O1333" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P1333" s="2" t="s">
         <v>33</v>
@@ -97174,22 +97183,22 @@
         <v>22</v>
       </c>
       <c r="D1334" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E1334" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1334" s="2" t="s">
-        <v>494</v>
+        <v>310</v>
       </c>
       <c r="G1334" s="1" t="s">
-        <v>1278</v>
+        <v>311</v>
       </c>
       <c r="H1334" s="1" t="s">
-        <v>1279</v>
+        <v>312</v>
       </c>
       <c r="I1334" s="1" t="s">
-        <v>1279</v>
+        <v>312</v>
       </c>
       <c r="J1334" s="2" t="s">
         <v>28</v>
@@ -97204,10 +97213,10 @@
         <v>31</v>
       </c>
       <c r="N1334" s="2" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="O1334" s="2" t="s">
-        <v>33</v>
+        <v>2034</v>
       </c>
       <c r="P1334" s="2" t="s">
         <v>33</v>
@@ -97242,22 +97251,22 @@
         <v>22</v>
       </c>
       <c r="D1335" s="2" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="E1335" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1335" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G1335" s="1" t="s">
-        <v>910</v>
+        <v>1278</v>
       </c>
       <c r="H1335" s="1" t="s">
-        <v>911</v>
+        <v>1279</v>
       </c>
       <c r="I1335" s="1" t="s">
-        <v>911</v>
+        <v>1279</v>
       </c>
       <c r="J1335" s="2" t="s">
         <v>28</v>
@@ -97316,16 +97325,16 @@
         <v>1970</v>
       </c>
       <c r="F1336" s="2" t="s">
-        <v>316</v>
+        <v>506</v>
       </c>
       <c r="G1336" s="1" t="s">
-        <v>317</v>
+        <v>910</v>
       </c>
       <c r="H1336" s="1" t="s">
-        <v>318</v>
+        <v>911</v>
       </c>
       <c r="I1336" s="1" t="s">
-        <v>319</v>
+        <v>911</v>
       </c>
       <c r="J1336" s="2" t="s">
         <v>28</v>
@@ -97340,10 +97349,10 @@
         <v>31</v>
       </c>
       <c r="N1336" s="2" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="O1336" s="2" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="P1336" s="2" t="s">
         <v>33</v>
@@ -97378,60 +97387,128 @@
         <v>22</v>
       </c>
       <c r="D1337" s="2" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="E1337" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="F1337" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1337" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1337" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1337" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1337" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1337" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1337" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1337" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1337" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1337" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1338" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1338" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1338" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F1338" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G1337" s="1" t="s">
+      <c r="G1338" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H1337" s="1" t="s">
+      <c r="H1338" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I1337" s="1" t="s">
+      <c r="I1338" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J1337" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1337" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1337" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1337" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1337" s="2" t="s">
-        <v>2035</v>
-      </c>
-      <c r="O1337" s="2" t="s">
-        <v>2036</v>
-      </c>
-      <c r="P1337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1337" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1337" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1337" s="2" t="s">
+      <c r="J1338" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1338" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1338" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="O1338" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="P1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1338" s="2" t="s">
         <v>33</v>
       </c>
     </row>
